--- a/biology/Botanique/Gaspacho/Gaspacho.xlsx
+++ b/biology/Botanique/Gaspacho/Gaspacho.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le gaspacho (de l'espagnol gazpacho[1]) est un potage servi froid, à base de tomates crues, légumes crus mixés et huile d'olive[2], très répandu en été dans le sud de l'Espagne (Andalousie) et le sud du Portugal (plus exactement en Alentejo et en Algarve, avec le gaspacho alentejo)[3].
-Le mot gazpacho vient de l'adjectif caccabaceus, qui signifie en latin "relatif au chaudron" (caccabus) et s'appliquait à l'époque impériale romaine à un type de pain similaire à celui utilisé aujourd'hui pour préparer le gaspacho manchois[4].
+Le gaspacho (de l'espagnol gazpacho) est un potage servi froid, à base de tomates crues, légumes crus mixés et huile d'olive, très répandu en été dans le sud de l'Espagne (Andalousie) et le sud du Portugal (plus exactement en Alentejo et en Algarve, avec le gaspacho alentejo).
+Le mot gazpacho vient de l'adjectif caccabaceus, qui signifie en latin "relatif au chaudron" (caccabus) et s'appliquait à l'époque impériale romaine à un type de pain similaire à celui utilisé aujourd'hui pour préparer le gaspacho manchois.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Variante de l'ajoblanco de la cuisine andalouse (sans tomate, probablement issue de la cuisine de la Rome antique ou cuisine grecque antique) cette recette estivale rafraîchissante est à l'origine préparée avec des tomates bien mures crues (arrivées en Espagne au XVIe siècle avec la découverte de l'Amérique de l'Empire espagnol[5],[6]) le tout allongé avec de l'eau ou des glaçons[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Variante de l'ajoblanco de la cuisine andalouse (sans tomate, probablement issue de la cuisine de la Rome antique ou cuisine grecque antique) cette recette estivale rafraîchissante est à l'origine préparée avec des tomates bien mures crues (arrivées en Espagne au XVIe siècle avec la découverte de l'Amérique de l'Empire espagnol,) le tout allongé avec de l'eau ou des glaçons.
 			Gaspacho andalou espagnol.
 			Gaspacho andalou.
 			Gaspacho alentejo portugais.
@@ -548,7 +562,9 @@
           <t>Quelques variantes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le gaspacho peut se préparer selon de nombreuses variantes traditionnelles régionales, avec par exemple :
 gaspacho andalou
@@ -583,9 +599,11 @@
           <t>Diététique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme il est composé de légumes crus, le gaspacho contient plus de vitamines qu'un potage de légumes cuits[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme il est composé de légumes crus, le gaspacho contient plus de vitamines qu'un potage de légumes cuits.
 </t>
         </is>
       </c>
@@ -614,9 +632,11 @@
           <t>Cinéma et littérature</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1605 : Don Quichotte, roman de Miguel de Cervantes, avec la citation de Sancho Panza « Je préférerai toujours me gaver de gaspacho qu’être soumis aux misères du traitement médical. »[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1605 : Don Quichotte, roman de Miguel de Cervantes, avec la citation de Sancho Panza « Je préférerai toujours me gaver de gaspacho qu’être soumis aux misères du traitement médical. ».
 1973 : Astérix en Corse, de René Goscinny et Albert Uderzo. Gazpachoandalus (gaspacho andalou) est un centurion du camp romain de Babaorum du village d'Astérix et Obélix.
 1988 : Femmes au bord de la crise de nerf, film de Pedro Almodovar.
 2002 : Astérix et Obélix : mission Cléopâtre, film d'Alain Chabat. Caius Gaspachoandalus (gaspacho andalou) est un général romain, interprété par Pierre Tchernia, présent dans la tente de Jules César lorsque celui-ci réunit son état-major.</t>
